--- a/src/goldminer-classic-origin-metadata-translate.xlsx
+++ b/src/goldminer-classic-origin-metadata-translate.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="403">
   <si>
     <t>English</t>
   </si>
@@ -1285,6 +1285,9 @@
     <t>APK's version code 
 (Android)
 space to seperate</t>
+  </si>
+  <si>
+    <t>111004 123004 144004 211004 223004 244004 611004 623004 644004</t>
   </si>
 </sst>
 </file>
@@ -4096,7 +4099,9 @@
       <c r="A9" t="s" s="11">
         <v>401</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" t="s" s="4">
+        <v>402</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>

--- a/src/goldminer-classic-origin-metadata-translate.xlsx
+++ b/src/goldminer-classic-origin-metadata-translate.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="454">
   <si>
     <t>English</t>
   </si>
@@ -217,64 +217,274 @@
     <t>Title</t>
   </si>
   <si>
+    <t>Gold miner - the origin</t>
+  </si>
+  <si>
+    <t>Gold Miner - происхождение</t>
+  </si>
+  <si>
+    <t>คนงานเหมืองทอง - ต้นกำเนิด</t>
+  </si>
+  <si>
+    <t>Altın madenci - kökeni</t>
+  </si>
+  <si>
+    <t>Vàng thợ mỏ - nguồn gốc</t>
+  </si>
+  <si>
+    <t>عامل منجم الذهب - الأصل</t>
+  </si>
+  <si>
+    <t>mineur d'or - l'origine</t>
+  </si>
+  <si>
+    <t>Gold miner - der Ursprung</t>
+  </si>
+  <si>
+    <t>黄金矿工 - 起源</t>
+  </si>
+  <si>
+    <t>黃金礦工 - 起源</t>
+  </si>
+  <si>
+    <t>ゴールドマイナー - 起源</t>
+  </si>
+  <si>
+    <t>Mina de oro - el origen</t>
+  </si>
+  <si>
+    <t>Gold Miner - l'origine</t>
+  </si>
+  <si>
+    <t>Gouden mijnwerker - de oorsprong</t>
+  </si>
+  <si>
+    <t>골드 광부 - 기원</t>
+  </si>
+  <si>
+    <t>mineiro de ouro - a origem</t>
+  </si>
+  <si>
+    <t>Gold Miner - alkuperä</t>
+  </si>
+  <si>
+    <t>Gold miner - opprinnelsen</t>
+  </si>
+  <si>
+    <t>Guld minearbejder - oprindelsen</t>
+  </si>
+  <si>
+    <t>Gold Miner - ursprunget</t>
+  </si>
+  <si>
+    <t>Gold Miner - pochodzenie</t>
+  </si>
+  <si>
+    <t>Gold Miner - původ</t>
+  </si>
+  <si>
+    <t>Gold Miner - η προέλευση</t>
+  </si>
+  <si>
+    <t>Gold Miner - походження</t>
+  </si>
+  <si>
+    <t>pelombong emas - asal</t>
+  </si>
+  <si>
+    <t>Penambang emas - asal</t>
+  </si>
+  <si>
+    <t>Gold Miner - originea</t>
+  </si>
+  <si>
+    <t>כורת זהב - המקור</t>
+  </si>
+  <si>
+    <t>सोने की खान में काम करनेवाला - मूल</t>
+  </si>
+  <si>
+    <t>Gold Miner - паходжанне</t>
+  </si>
+  <si>
+    <t>Злато миньор - произхода</t>
+  </si>
+  <si>
+    <t>Gold minero - ang pinagmulan</t>
+  </si>
+  <si>
+    <t>Gold Miner - podrijetlo</t>
+  </si>
+  <si>
+    <t>Gold Miner - a származási</t>
+  </si>
+  <si>
+    <t>Gold Miner - izcelsme</t>
+  </si>
+  <si>
+    <t>Голд минер - порекло</t>
+  </si>
+  <si>
+    <t>Gold Miner - pôvod</t>
+  </si>
+  <si>
+    <t>Gold miner - poreklo</t>
+  </si>
+  <si>
+    <t>Gold Miner - die oorsprong</t>
+  </si>
+  <si>
+    <t>የወርቅ ማዕድን - ምንጭ</t>
+  </si>
+  <si>
+    <t>Gold miner - ծագման</t>
+  </si>
+  <si>
+    <t>Gold Miner - mənşəyi</t>
+  </si>
+  <si>
+    <t>Gold Miner - jatorria</t>
+  </si>
+  <si>
+    <t>গোল্ড খনিজীবী - উৎপত্তি</t>
+  </si>
+  <si>
+    <t>ရွှေမိုင်းလုပ်သား - ဇာစ်မြစ်</t>
+  </si>
+  <si>
+    <t>Mina d'or - l'origen</t>
+  </si>
+  <si>
+    <t>Kuld kaevandaja - päritolu</t>
+  </si>
+  <si>
+    <t>mineiro de ouro - a orixe</t>
+  </si>
+  <si>
+    <t>Gold miner - წარმოშობის</t>
+  </si>
+  <si>
+    <t>Gold Miner - uppruna</t>
+  </si>
+  <si>
+    <t>ಗೋಲ್ಡ್ ಮೈನರ್ಸ್ - ಮೂಲದ</t>
+  </si>
+  <si>
+    <t>ក្រុមហ៊ុនរុករករ៉ែមាស - ប្រភពដើម</t>
+  </si>
+  <si>
+    <t>Алтын казуучу - келип чыгышы</t>
+  </si>
+  <si>
+    <t>ຄໍາແຮ່ທາດ - ຕົ້ນກໍາເນີດຂອງ</t>
+  </si>
+  <si>
+    <t>Gold Miner - kilmė</t>
+  </si>
+  <si>
+    <t>Злато рудар - потекло</t>
+  </si>
+  <si>
+    <t>ഗോൾഡ് ഖനിത്തൊഴിലാളിയായിരുന്നു - വംശജനായ</t>
+  </si>
+  <si>
+    <t>सोन्याच्या खाण कामगार - मूळ</t>
+  </si>
+  <si>
+    <t>Алт олборлогч - гарал үүсэл</t>
+  </si>
+  <si>
+    <t>सुन खान - मूल</t>
+  </si>
+  <si>
+    <t>معدنچی طلا - منشاء</t>
+  </si>
+  <si>
+    <t>රන් කම්කරුවා - ආරම්භය</t>
+  </si>
+  <si>
+    <t>Mchimbaji dhahabu - asili</t>
+  </si>
+  <si>
+    <t>தங்க மைனர் - தோற்றம்</t>
+  </si>
+  <si>
+    <t>గోల్డ్ ఖనకుడు - మూలం</t>
+  </si>
+  <si>
+    <t>Gold umvukuzi - umsuka</t>
+  </si>
+  <si>
+    <t>Title (short)</t>
+  </si>
+  <si>
+    <t>Gold miner</t>
+  </si>
+  <si>
+    <t>Золотоискатель</t>
+  </si>
+  <si>
+    <t>คนงานเหมืองทอง</t>
+  </si>
+  <si>
+    <t>Altın madencisi</t>
+  </si>
+  <si>
+    <t>Thợ đào vàng</t>
+  </si>
+  <si>
+    <t>منقب عن الذهب</t>
+  </si>
+  <si>
+    <t>Chercheur d'or</t>
+  </si>
+  <si>
+    <t>Goldgräber</t>
+  </si>
+  <si>
+    <t>黄金矿工</t>
+  </si>
+  <si>
+    <t>黃金礦工</t>
+  </si>
+  <si>
+    <t>ゴールド鉱山労働者</t>
+  </si>
+  <si>
+    <t>Minero de oro</t>
+  </si>
+  <si>
+    <t>Cercatore d'oro</t>
+  </si>
+  <si>
+    <t>Goud mijner</t>
+  </si>
+  <si>
+    <t>금 광부</t>
+  </si>
+  <si>
+    <t>Garimpeiro</t>
+  </si>
+  <si>
+    <t>Kullan kaivaja</t>
+  </si>
+  <si>
+    <t>Gullgraver</t>
+  </si>
+  <si>
+    <t>Guld minearbejder</t>
+  </si>
+  <si>
+    <t>Guldgrävare</t>
+  </si>
+  <si>
+    <t>gold Miner</t>
+  </si>
+  <si>
     <t>Gold Miner</t>
   </si>
   <si>
-    <t>Золотоискатель</t>
-  </si>
-  <si>
-    <t>คนขุดแร่ทอง</t>
-  </si>
-  <si>
-    <t>Altın madencisi</t>
-  </si>
-  <si>
-    <t>Thợ đào vàng</t>
-  </si>
-  <si>
-    <t>منقب عن الذهب</t>
-  </si>
-  <si>
-    <t>Chercheur d'or</t>
-  </si>
-  <si>
-    <t>Goldgräber</t>
-  </si>
-  <si>
-    <t>黄金矿工</t>
-  </si>
-  <si>
-    <t>黃金礦工</t>
-  </si>
-  <si>
-    <t>ゴールドマイナー</t>
-  </si>
-  <si>
-    <t>Minero de oro</t>
-  </si>
-  <si>
-    <t>Cercatore d'oro</t>
-  </si>
-  <si>
-    <t>Goud mijner</t>
-  </si>
-  <si>
-    <t>금 광부</t>
-  </si>
-  <si>
-    <t>Garimpeiro</t>
-  </si>
-  <si>
-    <t>Kullan kaivaja</t>
-  </si>
-  <si>
-    <t>Gullgraver</t>
-  </si>
-  <si>
-    <t>Guldgrävare</t>
-  </si>
-  <si>
-    <t>gold Miner</t>
+    <t>pelombong emas</t>
   </si>
   <si>
     <t>Penambang emas</t>
@@ -289,13 +499,16 @@
     <t>सोने की खान खोदनेवाला</t>
   </si>
   <si>
+    <t>Злато миньор</t>
+  </si>
+  <si>
+    <t>Gold minero</t>
+  </si>
+  <si>
     <t>Aranybányász</t>
   </si>
   <si>
-    <t>zlato рудар</t>
-  </si>
-  <si>
-    <t>Gold miner</t>
+    <t>голд минер</t>
   </si>
   <si>
     <t>የወርቅ ማዕድን ሠራተኛ</t>
@@ -304,100 +517,43 @@
     <t>স্বর্ণ খোদক</t>
   </si>
   <si>
-    <t>ရွှေ Miner</t>
-  </si>
-  <si>
-    <t>Mina d'or</t>
+    <t>ရွှေမိုင်းလုပ်သား</t>
+  </si>
+  <si>
+    <t>La minera d'or</t>
   </si>
   <si>
     <t>garimpeiro</t>
   </si>
   <si>
-    <t>ಗೋಲ್ಡ್ ಮೈನರ್</t>
-  </si>
-  <si>
-    <t>មាសរ៉ែ</t>
-  </si>
-  <si>
-    <t>алтын Miner</t>
-  </si>
-  <si>
-    <t>ຄໍາແຮ່ທາດ</t>
+    <t>ಗೋಲ್ಡ್ ಮೈನರ್ಸ್</t>
+  </si>
+  <si>
+    <t>ក្រុមហ៊ុនរុករករ៉ែមាស</t>
+  </si>
+  <si>
+    <t>алтын казуучу</t>
+  </si>
+  <si>
+    <t>ແຮ່ທາດຄໍາ</t>
   </si>
   <si>
     <t>злато рудар</t>
   </si>
   <si>
-    <t>ഗോൾഡ് Miner</t>
-  </si>
-  <si>
     <t>सोन्याच्या खाण कामगार</t>
   </si>
   <si>
+    <t>алт олборлогч</t>
+  </si>
+  <si>
     <t>सुन खान</t>
   </si>
   <si>
-    <t>طلا خیش</t>
+    <t>معدنچی طلا</t>
   </si>
   <si>
     <t>රන් කම්කරුවා</t>
-  </si>
-  <si>
-    <t>Miner Gold</t>
-  </si>
-  <si>
-    <t>தங்க மைனர்</t>
-  </si>
-  <si>
-    <t>గోల్డ్ మినెర్</t>
-  </si>
-  <si>
-    <t>Title (short)</t>
-  </si>
-  <si>
-    <t>คนงานเหมืองทอง</t>
-  </si>
-  <si>
-    <t>ゴールド鉱山労働者</t>
-  </si>
-  <si>
-    <t>Guld minearbejder</t>
-  </si>
-  <si>
-    <t>pelombong emas</t>
-  </si>
-  <si>
-    <t>Злато миньор</t>
-  </si>
-  <si>
-    <t>Gold minero</t>
-  </si>
-  <si>
-    <t>голд минер</t>
-  </si>
-  <si>
-    <t>ရွှေမိုင်းလုပ်သား</t>
-  </si>
-  <si>
-    <t>La minera d'or</t>
-  </si>
-  <si>
-    <t>ಗೋಲ್ಡ್ ಮೈನರ್ಸ್</t>
-  </si>
-  <si>
-    <t>ក្រុមហ៊ុនរុករករ៉ែមាស</t>
-  </si>
-  <si>
-    <t>алтын казуучу</t>
-  </si>
-  <si>
-    <t>ແຮ່ທາດຄໍາ</t>
-  </si>
-  <si>
-    <t>алт олборлогч</t>
-  </si>
-  <si>
-    <t>معدنچی طلا</t>
   </si>
   <si>
     <t>mchimbaji dhahabu</t>
@@ -2846,1183 +3002,1183 @@
         <v>85</v>
       </c>
       <c r="U2" t="s" s="4">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="V2" t="s" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W2" t="s" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="X2" t="s" s="4">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="Y2" t="s" s="4">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="Z2" t="s" s="4">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="AA2" t="s" s="4">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="AB2" t="s" s="4">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AC2" t="s" s="4">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="AD2" t="s" s="4">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AE2" t="s" s="4">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="AF2" t="s" s="4">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="AG2" t="s" s="4">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="AH2" t="s" s="4">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="AI2" t="s" s="4">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="AJ2" t="s" s="4">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="AK2" t="s" s="4">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="AL2" t="s" s="4">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="AM2" t="s" s="4">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="AN2" t="s" s="4">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="AO2" t="s" s="4">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="AP2" t="s" s="4">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="AQ2" t="s" s="4">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="AR2" t="s" s="4">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="AS2" t="s" s="4">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="AT2" t="s" s="4">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="AU2" t="s" s="4">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="AV2" t="s" s="4">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="AW2" t="s" s="4">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="AX2" t="s" s="4">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="AY2" t="s" s="4">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="AZ2" t="s" s="4">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="BA2" t="s" s="4">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="BB2" t="s" s="4">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="BC2" t="s" s="4">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="BD2" t="s" s="4">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="BE2" t="s" s="4">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="BF2" t="s" s="4">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="BG2" t="s" s="4">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="BH2" t="s" s="4">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="BI2" t="s" s="4">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="BJ2" t="s" s="4">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="BK2" t="s" s="4">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="BL2" t="s" s="4">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="BM2" t="s" s="4">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="BN2" t="s" s="4">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="BO2" t="s" s="4">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="BP2" t="s" s="4">
-        <v>68</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" ht="31" customHeight="1">
       <c r="A3" t="s" s="3">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="C3" t="s" s="4">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c r="D3" t="s" s="4">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="E3" t="s" s="4">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="F3" t="s" s="4">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="G3" t="s" s="4">
-        <v>73</v>
+        <v>140</v>
       </c>
       <c r="H3" t="s" s="5">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="I3" t="s" s="4">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="J3" t="s" s="4">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="K3" t="s" s="4">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="L3" t="s" s="4">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="M3" t="s" s="6">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="N3" t="s" s="4">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="O3" t="s" s="4">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="P3" t="s" s="4">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="Q3" t="s" s="4">
-        <v>83</v>
+        <v>150</v>
       </c>
       <c r="R3" t="s" s="4">
-        <v>83</v>
+        <v>150</v>
       </c>
       <c r="S3" t="s" s="4">
-        <v>84</v>
+        <v>151</v>
       </c>
       <c r="T3" t="s" s="4">
-        <v>85</v>
+        <v>152</v>
       </c>
       <c r="U3" t="s" s="4">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="V3" t="s" s="4">
-        <v>86</v>
+        <v>154</v>
       </c>
       <c r="W3" t="s" s="4">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="X3" t="s" s="4">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="Y3" t="s" s="4">
-        <v>68</v>
+        <v>156</v>
       </c>
       <c r="Z3" t="s" s="4">
-        <v>68</v>
+        <v>156</v>
       </c>
       <c r="AA3" t="s" s="4">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="AB3" t="s" s="4">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="AC3" t="s" s="4">
-        <v>89</v>
+        <v>159</v>
       </c>
       <c r="AD3" t="s" s="4">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="AE3" t="s" s="4">
-        <v>91</v>
+        <v>161</v>
       </c>
       <c r="AF3" t="s" s="4">
-        <v>68</v>
+        <v>156</v>
       </c>
       <c r="AG3" t="s" s="4">
-        <v>118</v>
+        <v>162</v>
       </c>
       <c r="AH3" t="s" s="4">
-        <v>119</v>
+        <v>163</v>
       </c>
       <c r="AI3" t="s" s="4">
-        <v>68</v>
+        <v>156</v>
       </c>
       <c r="AJ3" t="s" s="4">
-        <v>92</v>
+        <v>164</v>
       </c>
       <c r="AK3" t="s" s="4">
-        <v>68</v>
+        <v>156</v>
       </c>
       <c r="AL3" t="s" s="4">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="AM3" t="s" s="4">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="AN3" t="s" s="4">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="AO3" t="s" s="4">
-        <v>68</v>
+        <v>156</v>
       </c>
       <c r="AP3" t="s" s="4">
-        <v>95</v>
+        <v>166</v>
       </c>
       <c r="AQ3" t="s" s="4">
-        <v>68</v>
+        <v>156</v>
       </c>
       <c r="AR3" t="s" s="4">
-        <v>68</v>
+        <v>156</v>
       </c>
       <c r="AS3" t="s" s="4">
-        <v>68</v>
+        <v>156</v>
       </c>
       <c r="AT3" t="s" s="4">
-        <v>96</v>
+        <v>167</v>
       </c>
       <c r="AU3" t="s" s="4">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="AV3" t="s" s="4">
-        <v>122</v>
+        <v>169</v>
       </c>
       <c r="AW3" t="s" s="4">
-        <v>68</v>
+        <v>156</v>
       </c>
       <c r="AX3" t="s" s="4">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="AY3" t="s" s="4">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="AZ3" t="s" s="4">
-        <v>68</v>
+        <v>156</v>
       </c>
       <c r="BA3" t="s" s="4">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="BB3" t="s" s="4">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="BC3" t="s" s="4">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="BD3" t="s" s="4">
-        <v>126</v>
+        <v>174</v>
       </c>
       <c r="BE3" t="s" s="4">
-        <v>68</v>
+        <v>156</v>
       </c>
       <c r="BF3" t="s" s="4">
-        <v>104</v>
+        <v>175</v>
       </c>
       <c r="BG3" t="s" s="7">
-        <v>68</v>
+        <v>156</v>
       </c>
       <c r="BH3" t="s" s="4">
-        <v>106</v>
+        <v>176</v>
       </c>
       <c r="BI3" t="s" s="4">
-        <v>127</v>
+        <v>177</v>
       </c>
       <c r="BJ3" t="s" s="4">
-        <v>107</v>
+        <v>178</v>
       </c>
       <c r="BK3" t="s" s="4">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="BL3" t="s" s="4">
-        <v>109</v>
+        <v>180</v>
       </c>
       <c r="BM3" t="s" s="4">
-        <v>129</v>
+        <v>181</v>
       </c>
       <c r="BN3" t="s" s="4">
-        <v>130</v>
+        <v>182</v>
       </c>
       <c r="BO3" t="s" s="4">
-        <v>131</v>
+        <v>183</v>
       </c>
       <c r="BP3" t="s" s="4">
-        <v>132</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" ht="31" customHeight="1">
       <c r="A4" t="s" s="3">
-        <v>133</v>
+        <v>185</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>134</v>
+        <v>186</v>
       </c>
       <c r="C4" t="s" s="4">
-        <v>135</v>
+        <v>187</v>
       </c>
       <c r="D4" t="s" s="4">
-        <v>136</v>
+        <v>188</v>
       </c>
       <c r="E4" t="s" s="4">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="F4" t="s" s="4">
-        <v>138</v>
+        <v>190</v>
       </c>
       <c r="G4" t="s" s="4">
-        <v>139</v>
+        <v>191</v>
       </c>
       <c r="H4" t="s" s="5">
-        <v>140</v>
+        <v>192</v>
       </c>
       <c r="I4" t="s" s="4">
-        <v>141</v>
+        <v>193</v>
       </c>
       <c r="J4" t="s" s="4">
-        <v>142</v>
+        <v>194</v>
       </c>
       <c r="K4" t="s" s="4">
-        <v>143</v>
+        <v>195</v>
       </c>
       <c r="L4" t="s" s="4">
-        <v>144</v>
+        <v>196</v>
       </c>
       <c r="M4" t="s" s="6">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="N4" t="s" s="4">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c r="O4" t="s" s="4">
-        <v>147</v>
+        <v>199</v>
       </c>
       <c r="P4" t="s" s="4">
-        <v>148</v>
+        <v>200</v>
       </c>
       <c r="Q4" t="s" s="4">
-        <v>149</v>
+        <v>201</v>
       </c>
       <c r="R4" t="s" s="4">
-        <v>149</v>
+        <v>201</v>
       </c>
       <c r="S4" t="s" s="4">
-        <v>150</v>
+        <v>202</v>
       </c>
       <c r="T4" t="s" s="4">
-        <v>151</v>
+        <v>203</v>
       </c>
       <c r="U4" t="s" s="4">
-        <v>152</v>
+        <v>204</v>
       </c>
       <c r="V4" t="s" s="4">
-        <v>153</v>
+        <v>205</v>
       </c>
       <c r="W4" t="s" s="4">
-        <v>154</v>
+        <v>206</v>
       </c>
       <c r="X4" t="s" s="4">
-        <v>155</v>
+        <v>207</v>
       </c>
       <c r="Y4" t="s" s="4">
-        <v>156</v>
+        <v>208</v>
       </c>
       <c r="Z4" t="s" s="4">
-        <v>157</v>
+        <v>209</v>
       </c>
       <c r="AA4" t="s" s="4">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="AB4" t="s" s="4">
-        <v>159</v>
+        <v>211</v>
       </c>
       <c r="AC4" t="s" s="4">
-        <v>160</v>
+        <v>212</v>
       </c>
       <c r="AD4" t="s" s="4">
-        <v>161</v>
+        <v>213</v>
       </c>
       <c r="AE4" t="s" s="4">
-        <v>162</v>
+        <v>214</v>
       </c>
       <c r="AF4" t="s" s="4">
-        <v>163</v>
+        <v>215</v>
       </c>
       <c r="AG4" t="s" s="4">
-        <v>164</v>
+        <v>216</v>
       </c>
       <c r="AH4" t="s" s="4">
-        <v>165</v>
+        <v>217</v>
       </c>
       <c r="AI4" t="s" s="4">
-        <v>166</v>
+        <v>218</v>
       </c>
       <c r="AJ4" t="s" s="4">
-        <v>167</v>
+        <v>219</v>
       </c>
       <c r="AK4" t="s" s="4">
-        <v>168</v>
+        <v>220</v>
       </c>
       <c r="AL4" t="s" s="4">
-        <v>169</v>
+        <v>221</v>
       </c>
       <c r="AM4" t="s" s="4">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="AN4" t="s" s="4">
-        <v>171</v>
+        <v>223</v>
       </c>
       <c r="AO4" t="s" s="4">
-        <v>172</v>
+        <v>224</v>
       </c>
       <c r="AP4" t="s" s="4">
-        <v>173</v>
+        <v>225</v>
       </c>
       <c r="AQ4" t="s" s="4">
-        <v>174</v>
+        <v>226</v>
       </c>
       <c r="AR4" t="s" s="4">
-        <v>175</v>
+        <v>227</v>
       </c>
       <c r="AS4" t="s" s="4">
-        <v>176</v>
+        <v>228</v>
       </c>
       <c r="AT4" t="s" s="4">
-        <v>177</v>
+        <v>229</v>
       </c>
       <c r="AU4" t="s" s="4">
-        <v>178</v>
+        <v>230</v>
       </c>
       <c r="AV4" t="s" s="4">
-        <v>179</v>
+        <v>231</v>
       </c>
       <c r="AW4" t="s" s="4">
-        <v>180</v>
+        <v>232</v>
       </c>
       <c r="AX4" t="s" s="4">
-        <v>181</v>
+        <v>233</v>
       </c>
       <c r="AY4" t="s" s="4">
-        <v>182</v>
+        <v>234</v>
       </c>
       <c r="AZ4" t="s" s="4">
-        <v>183</v>
+        <v>235</v>
       </c>
       <c r="BA4" t="s" s="4">
-        <v>184</v>
+        <v>236</v>
       </c>
       <c r="BB4" t="s" s="4">
-        <v>185</v>
+        <v>237</v>
       </c>
       <c r="BC4" t="s" s="4">
-        <v>186</v>
+        <v>238</v>
       </c>
       <c r="BD4" t="s" s="4">
-        <v>187</v>
+        <v>239</v>
       </c>
       <c r="BE4" t="s" s="4">
-        <v>188</v>
+        <v>240</v>
       </c>
       <c r="BF4" t="s" s="4">
-        <v>189</v>
+        <v>241</v>
       </c>
       <c r="BG4" t="s" s="4">
-        <v>190</v>
+        <v>242</v>
       </c>
       <c r="BH4" t="s" s="4">
-        <v>191</v>
+        <v>243</v>
       </c>
       <c r="BI4" t="s" s="4">
-        <v>192</v>
+        <v>244</v>
       </c>
       <c r="BJ4" t="s" s="4">
-        <v>193</v>
+        <v>245</v>
       </c>
       <c r="BK4" t="s" s="4">
-        <v>194</v>
+        <v>246</v>
       </c>
       <c r="BL4" t="s" s="4">
-        <v>195</v>
+        <v>247</v>
       </c>
       <c r="BM4" t="s" s="4">
-        <v>196</v>
+        <v>248</v>
       </c>
       <c r="BN4" t="s" s="4">
-        <v>197</v>
+        <v>249</v>
       </c>
       <c r="BO4" t="s" s="4">
-        <v>198</v>
+        <v>250</v>
       </c>
       <c r="BP4" t="s" s="4">
-        <v>199</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" ht="31" customHeight="1">
       <c r="A5" t="s" s="3">
-        <v>200</v>
+        <v>252</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>201</v>
+        <v>253</v>
       </c>
       <c r="C5" t="s" s="4">
-        <v>202</v>
+        <v>254</v>
       </c>
       <c r="D5" t="s" s="4">
-        <v>203</v>
+        <v>255</v>
       </c>
       <c r="E5" t="s" s="4">
-        <v>204</v>
+        <v>256</v>
       </c>
       <c r="F5" t="s" s="4">
-        <v>205</v>
+        <v>257</v>
       </c>
       <c r="G5" t="s" s="4">
-        <v>206</v>
+        <v>258</v>
       </c>
       <c r="H5" t="s" s="5">
-        <v>207</v>
+        <v>259</v>
       </c>
       <c r="I5" t="s" s="4">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="J5" t="s" s="4">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="K5" t="s" s="4">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="L5" t="s" s="4">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="M5" t="s" s="6">
-        <v>211</v>
+        <v>263</v>
       </c>
       <c r="N5" t="s" s="4">
-        <v>212</v>
+        <v>264</v>
       </c>
       <c r="O5" t="s" s="4">
-        <v>213</v>
+        <v>265</v>
       </c>
       <c r="P5" t="s" s="4">
-        <v>214</v>
+        <v>266</v>
       </c>
       <c r="Q5" t="s" s="4">
-        <v>215</v>
+        <v>267</v>
       </c>
       <c r="R5" t="s" s="4">
-        <v>215</v>
+        <v>267</v>
       </c>
       <c r="S5" t="s" s="4">
-        <v>216</v>
+        <v>268</v>
       </c>
       <c r="T5" t="s" s="4">
-        <v>217</v>
+        <v>269</v>
       </c>
       <c r="U5" t="s" s="4">
-        <v>218</v>
+        <v>270</v>
       </c>
       <c r="V5" t="s" s="4">
-        <v>219</v>
+        <v>271</v>
       </c>
       <c r="W5" t="s" s="4">
-        <v>220</v>
+        <v>272</v>
       </c>
       <c r="X5" t="s" s="4">
-        <v>221</v>
+        <v>273</v>
       </c>
       <c r="Y5" t="s" s="4">
-        <v>222</v>
+        <v>274</v>
       </c>
       <c r="Z5" t="s" s="4">
-        <v>223</v>
+        <v>275</v>
       </c>
       <c r="AA5" t="s" s="4">
-        <v>224</v>
+        <v>276</v>
       </c>
       <c r="AB5" t="s" s="4">
-        <v>225</v>
+        <v>277</v>
       </c>
       <c r="AC5" t="s" s="4">
-        <v>226</v>
+        <v>278</v>
       </c>
       <c r="AD5" t="s" s="4">
-        <v>227</v>
+        <v>279</v>
       </c>
       <c r="AE5" t="s" s="4">
-        <v>228</v>
+        <v>280</v>
       </c>
       <c r="AF5" t="s" s="4">
-        <v>229</v>
+        <v>281</v>
       </c>
       <c r="AG5" t="s" s="4">
-        <v>230</v>
+        <v>282</v>
       </c>
       <c r="AH5" t="s" s="4">
-        <v>231</v>
+        <v>283</v>
       </c>
       <c r="AI5" t="s" s="4">
-        <v>232</v>
+        <v>284</v>
       </c>
       <c r="AJ5" t="s" s="4">
-        <v>233</v>
+        <v>285</v>
       </c>
       <c r="AK5" t="s" s="4">
-        <v>234</v>
+        <v>286</v>
       </c>
       <c r="AL5" t="s" s="4">
-        <v>235</v>
+        <v>287</v>
       </c>
       <c r="AM5" t="s" s="4">
-        <v>236</v>
+        <v>288</v>
       </c>
       <c r="AN5" t="s" s="4">
-        <v>237</v>
+        <v>289</v>
       </c>
       <c r="AO5" t="s" s="4">
-        <v>238</v>
+        <v>290</v>
       </c>
       <c r="AP5" t="s" s="4">
-        <v>239</v>
+        <v>291</v>
       </c>
       <c r="AQ5" t="s" s="4">
-        <v>240</v>
+        <v>292</v>
       </c>
       <c r="AR5" t="s" s="4">
-        <v>241</v>
+        <v>293</v>
       </c>
       <c r="AS5" t="s" s="4">
-        <v>242</v>
+        <v>294</v>
       </c>
       <c r="AT5" t="s" s="4">
-        <v>243</v>
+        <v>295</v>
       </c>
       <c r="AU5" t="s" s="4">
-        <v>244</v>
+        <v>296</v>
       </c>
       <c r="AV5" t="s" s="4">
-        <v>245</v>
+        <v>297</v>
       </c>
       <c r="AW5" t="s" s="4">
-        <v>246</v>
+        <v>298</v>
       </c>
       <c r="AX5" t="s" s="4">
-        <v>247</v>
+        <v>299</v>
       </c>
       <c r="AY5" t="s" s="4">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="AZ5" t="s" s="4">
-        <v>249</v>
+        <v>301</v>
       </c>
       <c r="BA5" t="s" s="4">
-        <v>250</v>
+        <v>302</v>
       </c>
       <c r="BB5" t="s" s="4">
-        <v>251</v>
+        <v>303</v>
       </c>
       <c r="BC5" t="s" s="4">
-        <v>252</v>
+        <v>304</v>
       </c>
       <c r="BD5" t="s" s="4">
-        <v>253</v>
+        <v>305</v>
       </c>
       <c r="BE5" t="s" s="4">
-        <v>254</v>
+        <v>306</v>
       </c>
       <c r="BF5" t="s" s="4">
-        <v>255</v>
+        <v>307</v>
       </c>
       <c r="BG5" t="s" s="4">
-        <v>256</v>
+        <v>308</v>
       </c>
       <c r="BH5" t="s" s="4">
-        <v>257</v>
+        <v>309</v>
       </c>
       <c r="BI5" t="s" s="4">
-        <v>258</v>
+        <v>310</v>
       </c>
       <c r="BJ5" t="s" s="4">
-        <v>259</v>
+        <v>311</v>
       </c>
       <c r="BK5" t="s" s="4">
-        <v>260</v>
+        <v>312</v>
       </c>
       <c r="BL5" t="s" s="4">
-        <v>261</v>
+        <v>313</v>
       </c>
       <c r="BM5" t="s" s="4">
-        <v>262</v>
+        <v>314</v>
       </c>
       <c r="BN5" t="s" s="4">
-        <v>263</v>
+        <v>315</v>
       </c>
       <c r="BO5" t="s" s="4">
-        <v>264</v>
+        <v>316</v>
       </c>
       <c r="BP5" t="s" s="4">
-        <v>265</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" ht="31" customHeight="1">
       <c r="A6" t="s" s="3">
-        <v>266</v>
+        <v>318</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>267</v>
+        <v>319</v>
       </c>
       <c r="C6" t="s" s="4">
-        <v>268</v>
+        <v>320</v>
       </c>
       <c r="D6" t="s" s="4">
-        <v>269</v>
+        <v>321</v>
       </c>
       <c r="E6" t="s" s="4">
-        <v>270</v>
+        <v>322</v>
       </c>
       <c r="F6" t="s" s="4">
-        <v>271</v>
+        <v>323</v>
       </c>
       <c r="G6" t="s" s="4">
-        <v>272</v>
+        <v>324</v>
       </c>
       <c r="H6" t="s" s="5">
-        <v>273</v>
+        <v>325</v>
       </c>
       <c r="I6" t="s" s="4">
-        <v>274</v>
+        <v>326</v>
       </c>
       <c r="J6" t="s" s="4">
-        <v>275</v>
+        <v>327</v>
       </c>
       <c r="K6" t="s" s="4">
-        <v>276</v>
+        <v>328</v>
       </c>
       <c r="L6" t="s" s="4">
-        <v>277</v>
+        <v>329</v>
       </c>
       <c r="M6" t="s" s="6">
-        <v>278</v>
+        <v>330</v>
       </c>
       <c r="N6" t="s" s="4">
-        <v>279</v>
+        <v>331</v>
       </c>
       <c r="O6" t="s" s="4">
-        <v>280</v>
+        <v>332</v>
       </c>
       <c r="P6" t="s" s="4">
-        <v>281</v>
+        <v>333</v>
       </c>
       <c r="Q6" t="s" s="4">
-        <v>282</v>
+        <v>334</v>
       </c>
       <c r="R6" t="s" s="4">
-        <v>282</v>
+        <v>334</v>
       </c>
       <c r="S6" t="s" s="4">
-        <v>283</v>
+        <v>335</v>
       </c>
       <c r="T6" t="s" s="4">
-        <v>284</v>
+        <v>336</v>
       </c>
       <c r="U6" t="s" s="4">
-        <v>285</v>
+        <v>337</v>
       </c>
       <c r="V6" t="s" s="4">
-        <v>286</v>
+        <v>338</v>
       </c>
       <c r="W6" t="s" s="4">
-        <v>287</v>
+        <v>339</v>
       </c>
       <c r="X6" t="s" s="4">
-        <v>288</v>
+        <v>340</v>
       </c>
       <c r="Y6" t="s" s="4">
-        <v>289</v>
+        <v>341</v>
       </c>
       <c r="Z6" t="s" s="4">
-        <v>290</v>
+        <v>342</v>
       </c>
       <c r="AA6" t="s" s="4">
-        <v>291</v>
+        <v>343</v>
       </c>
       <c r="AB6" t="s" s="4">
-        <v>292</v>
+        <v>344</v>
       </c>
       <c r="AC6" t="s" s="4">
-        <v>293</v>
+        <v>345</v>
       </c>
       <c r="AD6" t="s" s="4">
-        <v>294</v>
+        <v>346</v>
       </c>
       <c r="AE6" t="s" s="4">
-        <v>295</v>
+        <v>347</v>
       </c>
       <c r="AF6" t="s" s="4">
-        <v>296</v>
+        <v>348</v>
       </c>
       <c r="AG6" t="s" s="4">
-        <v>297</v>
+        <v>349</v>
       </c>
       <c r="AH6" t="s" s="4">
-        <v>298</v>
+        <v>350</v>
       </c>
       <c r="AI6" t="s" s="4">
-        <v>299</v>
+        <v>351</v>
       </c>
       <c r="AJ6" t="s" s="4">
-        <v>300</v>
+        <v>352</v>
       </c>
       <c r="AK6" t="s" s="4">
-        <v>301</v>
+        <v>353</v>
       </c>
       <c r="AL6" t="s" s="4">
-        <v>302</v>
+        <v>354</v>
       </c>
       <c r="AM6" t="s" s="4">
-        <v>303</v>
+        <v>355</v>
       </c>
       <c r="AN6" t="s" s="4">
-        <v>304</v>
+        <v>356</v>
       </c>
       <c r="AO6" t="s" s="4">
-        <v>305</v>
+        <v>357</v>
       </c>
       <c r="AP6" t="s" s="4">
-        <v>306</v>
+        <v>358</v>
       </c>
       <c r="AQ6" t="s" s="4">
-        <v>307</v>
+        <v>359</v>
       </c>
       <c r="AR6" t="s" s="4">
-        <v>308</v>
+        <v>360</v>
       </c>
       <c r="AS6" t="s" s="4">
-        <v>309</v>
+        <v>361</v>
       </c>
       <c r="AT6" t="s" s="4">
-        <v>310</v>
+        <v>362</v>
       </c>
       <c r="AU6" t="s" s="4">
-        <v>311</v>
+        <v>363</v>
       </c>
       <c r="AV6" t="s" s="4">
-        <v>312</v>
+        <v>364</v>
       </c>
       <c r="AW6" t="s" s="4">
-        <v>313</v>
+        <v>365</v>
       </c>
       <c r="AX6" t="s" s="4">
-        <v>314</v>
+        <v>366</v>
       </c>
       <c r="AY6" t="s" s="4">
-        <v>315</v>
+        <v>367</v>
       </c>
       <c r="AZ6" t="s" s="4">
-        <v>316</v>
+        <v>368</v>
       </c>
       <c r="BA6" t="s" s="4">
-        <v>317</v>
+        <v>369</v>
       </c>
       <c r="BB6" t="s" s="4">
-        <v>318</v>
+        <v>370</v>
       </c>
       <c r="BC6" t="s" s="4">
-        <v>319</v>
+        <v>371</v>
       </c>
       <c r="BD6" t="s" s="4">
-        <v>320</v>
+        <v>372</v>
       </c>
       <c r="BE6" t="s" s="4">
-        <v>321</v>
+        <v>373</v>
       </c>
       <c r="BF6" t="s" s="4">
-        <v>322</v>
+        <v>374</v>
       </c>
       <c r="BG6" t="s" s="4">
-        <v>323</v>
+        <v>375</v>
       </c>
       <c r="BH6" t="s" s="4">
-        <v>324</v>
+        <v>376</v>
       </c>
       <c r="BI6" t="s" s="4">
-        <v>325</v>
+        <v>377</v>
       </c>
       <c r="BJ6" t="s" s="4">
-        <v>326</v>
+        <v>378</v>
       </c>
       <c r="BK6" t="s" s="4">
-        <v>327</v>
+        <v>379</v>
       </c>
       <c r="BL6" t="s" s="4">
-        <v>328</v>
+        <v>380</v>
       </c>
       <c r="BM6" t="s" s="4">
-        <v>329</v>
+        <v>381</v>
       </c>
       <c r="BN6" t="s" s="4">
-        <v>330</v>
+        <v>382</v>
       </c>
       <c r="BO6" t="s" s="4">
-        <v>331</v>
+        <v>383</v>
       </c>
       <c r="BP6" t="s" s="4">
-        <v>332</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" ht="72.4" customHeight="1">
       <c r="A7" t="s" s="3">
-        <v>333</v>
+        <v>385</v>
       </c>
       <c r="B7" t="s" s="8">
-        <v>334</v>
+        <v>386</v>
       </c>
       <c r="C7" t="s" s="8">
-        <v>335</v>
+        <v>387</v>
       </c>
       <c r="D7" t="s" s="8">
-        <v>336</v>
+        <v>388</v>
       </c>
       <c r="E7" t="s" s="8">
-        <v>337</v>
+        <v>389</v>
       </c>
       <c r="F7" t="s" s="8">
-        <v>338</v>
+        <v>390</v>
       </c>
       <c r="G7" t="s" s="8">
-        <v>339</v>
+        <v>391</v>
       </c>
       <c r="H7" t="s" s="9">
-        <v>340</v>
+        <v>392</v>
       </c>
       <c r="I7" t="s" s="8">
-        <v>341</v>
+        <v>393</v>
       </c>
       <c r="J7" t="s" s="8">
-        <v>342</v>
+        <v>394</v>
       </c>
       <c r="K7" t="s" s="8">
-        <v>343</v>
+        <v>395</v>
       </c>
       <c r="L7" t="s" s="8">
-        <v>344</v>
+        <v>396</v>
       </c>
       <c r="M7" t="s" s="10">
-        <v>345</v>
+        <v>397</v>
       </c>
       <c r="N7" t="s" s="8">
-        <v>346</v>
+        <v>398</v>
       </c>
       <c r="O7" t="s" s="8">
-        <v>347</v>
+        <v>399</v>
       </c>
       <c r="P7" t="s" s="8">
-        <v>348</v>
+        <v>400</v>
       </c>
       <c r="Q7" t="s" s="8">
-        <v>349</v>
+        <v>401</v>
       </c>
       <c r="R7" t="s" s="8">
-        <v>349</v>
+        <v>401</v>
       </c>
       <c r="S7" t="s" s="8">
-        <v>350</v>
+        <v>402</v>
       </c>
       <c r="T7" t="s" s="8">
-        <v>351</v>
+        <v>403</v>
       </c>
       <c r="U7" t="s" s="8">
-        <v>352</v>
+        <v>404</v>
       </c>
       <c r="V7" t="s" s="8">
-        <v>353</v>
+        <v>405</v>
       </c>
       <c r="W7" t="s" s="8">
-        <v>354</v>
+        <v>406</v>
       </c>
       <c r="X7" t="s" s="8">
-        <v>355</v>
+        <v>407</v>
       </c>
       <c r="Y7" t="s" s="8">
-        <v>356</v>
+        <v>408</v>
       </c>
       <c r="Z7" t="s" s="8">
-        <v>357</v>
+        <v>409</v>
       </c>
       <c r="AA7" t="s" s="8">
-        <v>358</v>
+        <v>410</v>
       </c>
       <c r="AB7" t="s" s="8">
-        <v>359</v>
+        <v>411</v>
       </c>
       <c r="AC7" t="s" s="8">
-        <v>360</v>
+        <v>412</v>
       </c>
       <c r="AD7" t="s" s="8">
-        <v>361</v>
+        <v>413</v>
       </c>
       <c r="AE7" t="s" s="8">
-        <v>362</v>
+        <v>414</v>
       </c>
       <c r="AF7" t="s" s="8">
-        <v>363</v>
+        <v>415</v>
       </c>
       <c r="AG7" t="s" s="8">
-        <v>364</v>
+        <v>416</v>
       </c>
       <c r="AH7" t="s" s="8">
-        <v>365</v>
+        <v>417</v>
       </c>
       <c r="AI7" t="s" s="8">
-        <v>366</v>
+        <v>418</v>
       </c>
       <c r="AJ7" t="s" s="8">
-        <v>367</v>
+        <v>419</v>
       </c>
       <c r="AK7" t="s" s="8">
-        <v>368</v>
+        <v>420</v>
       </c>
       <c r="AL7" t="s" s="8">
-        <v>369</v>
+        <v>421</v>
       </c>
       <c r="AM7" t="s" s="8">
-        <v>370</v>
+        <v>422</v>
       </c>
       <c r="AN7" t="s" s="8">
-        <v>371</v>
+        <v>423</v>
       </c>
       <c r="AO7" t="s" s="8">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="AP7" t="s" s="8">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="AQ7" t="s" s="8">
-        <v>374</v>
+        <v>426</v>
       </c>
       <c r="AR7" t="s" s="8">
-        <v>375</v>
+        <v>427</v>
       </c>
       <c r="AS7" t="s" s="8">
-        <v>376</v>
+        <v>428</v>
       </c>
       <c r="AT7" t="s" s="8">
-        <v>377</v>
+        <v>429</v>
       </c>
       <c r="AU7" t="s" s="8">
-        <v>378</v>
+        <v>430</v>
       </c>
       <c r="AV7" t="s" s="8">
-        <v>379</v>
+        <v>431</v>
       </c>
       <c r="AW7" t="s" s="8">
-        <v>380</v>
+        <v>432</v>
       </c>
       <c r="AX7" t="s" s="8">
-        <v>381</v>
+        <v>433</v>
       </c>
       <c r="AY7" t="s" s="8">
-        <v>382</v>
+        <v>434</v>
       </c>
       <c r="AZ7" t="s" s="8">
-        <v>383</v>
+        <v>435</v>
       </c>
       <c r="BA7" t="s" s="8">
-        <v>384</v>
+        <v>436</v>
       </c>
       <c r="BB7" t="s" s="8">
-        <v>385</v>
+        <v>437</v>
       </c>
       <c r="BC7" t="s" s="8">
-        <v>386</v>
+        <v>438</v>
       </c>
       <c r="BD7" t="s" s="8">
-        <v>387</v>
+        <v>439</v>
       </c>
       <c r="BE7" t="s" s="8">
-        <v>388</v>
+        <v>440</v>
       </c>
       <c r="BF7" t="s" s="8">
-        <v>389</v>
+        <v>441</v>
       </c>
       <c r="BG7" t="s" s="8">
-        <v>390</v>
+        <v>442</v>
       </c>
       <c r="BH7" t="s" s="8">
-        <v>391</v>
+        <v>443</v>
       </c>
       <c r="BI7" t="s" s="8">
-        <v>392</v>
+        <v>444</v>
       </c>
       <c r="BJ7" t="s" s="8">
-        <v>393</v>
+        <v>445</v>
       </c>
       <c r="BK7" t="s" s="8">
-        <v>394</v>
+        <v>446</v>
       </c>
       <c r="BL7" t="s" s="8">
-        <v>395</v>
+        <v>447</v>
       </c>
       <c r="BM7" t="s" s="8">
-        <v>396</v>
+        <v>448</v>
       </c>
       <c r="BN7" t="s" s="8">
-        <v>397</v>
+        <v>449</v>
       </c>
       <c r="BO7" t="s" s="8">
-        <v>398</v>
+        <v>450</v>
       </c>
       <c r="BP7" t="s" s="8">
-        <v>399</v>
+        <v>451</v>
       </c>
     </row>
     <row r="8" ht="19.55" customHeight="1">
       <c r="A8" t="s" s="3">
-        <v>400</v>
+        <v>452</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -4094,7 +4250,7 @@
     </row>
     <row r="9" ht="49.55" customHeight="1">
       <c r="A9" t="s" s="11">
-        <v>401</v>
+        <v>453</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
